--- a/biology/Zoologie/Ammodytes/Ammodytes.xlsx
+++ b/biology/Zoologie/Ammodytes/Ammodytes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ammodytes est un genre de poissons marins de l'ordre des Perciformes, de la famille des Ammodytidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FishBase                                           (1er novembre 2021)[1] et World Register of Marine Species                               (1er novembre 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FishBase                                           (1er novembre 2021) et World Register of Marine Species                               (1er novembre 2021) :
 Ammodytes americanus DeKay, 1842 — Lançon d'Amérique
 Ammodytes dubius Reinhardt, 1837 — Lançon du nord
 Ammodytes heian Orr, Wildes &amp; Kai, 2015
@@ -522,7 +536,7 @@
 Ammodytes marinus Raitt, 1934 - Lançon équille
 Ammodytes personatus Girard, 1856 — Lançon du Pacifique
 Ammodytes tobianus Linnaeus, 1758 — Lançon équille
-Selon les espèces, les Ammodytes peuvent être appelés lançon, équille, cicerelle, anguille de sable[3], ou encore en gastronomie brocheton ou lanceron[4].
+Selon les espèces, les Ammodytes peuvent être appelés lançon, équille, cicerelle, anguille de sable, ou encore en gastronomie brocheton ou lanceron.
 </t>
         </is>
       </c>
